--- a/lab_first_year/second_semester/tzemed_thermi/data.xlsx
+++ b/lab_first_year/second_semester/tzemed_thermi/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\physics_python_tools\lab_first_year\second_semester\tzemed_thermi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B101319-A202-49CD-B7BB-227EE9FF0E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F07E8A-ECCE-44A5-88C7-A7F743A86740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{E22F7FF6-FEB6-4B2F-B163-A358FF96A219}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" xr2:uid="{E22F7FF6-FEB6-4B2F-B163-A358FF96A219}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>v</t>
   </si>
@@ -108,6 +108,9 @@
   <si>
     <t>stdev/n</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
@@ -151,16 +154,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -171,13 +175,28 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -190,6 +209,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -336,7 +358,7 @@
             <c:numRef>
               <c:f>גיליון1!$H$8:$H$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>361.10265199999998</c:v>
@@ -408,7 +430,7 @@
             <c:numRef>
               <c:f>גיליון1!$J$8:$J$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3.6</c:v>
@@ -531,7 +553,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -637,7 +659,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -884,7 +906,7 @@
             <c:numRef>
               <c:f>גיליון2!$H$8:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>295.80265199999997</c:v>
@@ -935,7 +957,7 @@
             <c:numRef>
               <c:f>גיליון2!$J$8:$J$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.89</c:v>
@@ -1037,7 +1059,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1143,7 +1165,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2384,15 +2406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>909637</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2462,23 +2484,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36010547-7C6B-4F2E-A5BB-65401EBB814E}" name="טבלה1" displayName="טבלה1" ref="A7:F28" totalsRowShown="0">
-  <autoFilter ref="A7:F28" xr:uid="{7900A66B-F3D5-47CF-B5F5-892EA86F93F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36010547-7C6B-4F2E-A5BB-65401EBB814E}" name="טבלה1" displayName="טבלה1" ref="A7:F29" totalsRowShown="0">
+  <autoFilter ref="A7:F29" xr:uid="{7900A66B-F3D5-47CF-B5F5-892EA86F93F3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{528F392D-F2A0-4C2E-AB32-1816C29D53A4}" name="∆T'[Celsious]"/>
-    <tableColumn id="2" xr3:uid="{F99A4737-6D5B-4DAA-A3B5-EB850F7C3AF4}" name="∆∆T[celsious]" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{F99A4737-6D5B-4DAA-A3B5-EB850F7C3AF4}" name="∆∆T[celsious]" dataDxfId="18">
       <calculatedColumnFormula>B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B5B2A375-3ABA-4B96-811F-870D1D6D75A3}" name="V[mV]" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{B5B2A375-3ABA-4B96-811F-870D1D6D75A3}" name="V[mV]" dataDxfId="17">
       <calculatedColumnFormula>טבלה1[[#This Row],[∆T'''[Celsious']]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{36119DA4-A164-4DCA-9823-06CBC6EF5998}" name="∆V[mV]" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{36119DA4-A164-4DCA-9823-06CBC6EF5998}" name="∆V[mV]" dataDxfId="16">
       <calculatedColumnFormula>טבלה1[[#This Row],[V'[mV']]]*0.0003+2*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B773BB61-6A17-4349-AC18-960A3175E6D4}" name="עמודה1" dataDxfId="1">
-      <calculatedColumnFormula>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{B773BB61-6A17-4349-AC18-960A3175E6D4}" name="עמודה1" dataDxfId="0">
+      <calculatedColumnFormula>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DB41DA96-98B4-4365-9E08-A73695850FEB}" name="עמודה2" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{DB41DA96-98B4-4365-9E08-A73695850FEB}" name="עמודה2" dataDxfId="15">
       <calculatedColumnFormula>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2488,18 +2510,17 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F326F1E8-6347-496D-A5CF-9EAD0C6D4CBA}" name="טבלה13" displayName="טבלה13" ref="H7:K28" totalsRowShown="0">
-  <autoFilter ref="H7:K28" xr:uid="{23AF4730-CA31-4DDB-8BA1-E6755779E40C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8065B746-7C55-47F2-AFD1-9A78248CC87C}" name="∆T[Kelvin]" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{8065B746-7C55-47F2-AFD1-9A78248CC87C}" name="∆T[Kelvin]" dataDxfId="7">
       <calculatedColumnFormula>טבלה1[∆T'''[Celsious']]+273.15-A$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FEBE96C0-FE34-4C60-B99B-C2D48E96C815}" name="∆∆T[Kelvin]">
+    <tableColumn id="2" xr3:uid="{FEBE96C0-FE34-4C60-B99B-C2D48E96C815}" name="∆∆T[Kelvin]" dataDxfId="8">
       <calculatedColumnFormula>טבלה1[∆∆T'[celsious']]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5B29A430-94A6-4110-BD59-FDF61B1D7400}" name="V[mV]">
+    <tableColumn id="3" xr3:uid="{5B29A430-94A6-4110-BD59-FDF61B1D7400}" name="V[mV]" dataDxfId="9">
       <calculatedColumnFormula>טבלה1[V'[mV']]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4AD640D9-AEC5-4413-992D-188B38C7692F}" name="∆V[mV]">
+    <tableColumn id="4" xr3:uid="{4AD640D9-AEC5-4413-992D-188B38C7692F}" name="∆V[mV]" dataDxfId="10">
       <calculatedColumnFormula>טבלה1[∆V'[mV']]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2511,21 +2532,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EEAEC2-D395-491F-A220-21000EBE7355}" name="טבלה14" displayName="טבלה14" ref="A7:F21" totalsRowShown="0">
   <autoFilter ref="A7:F21" xr:uid="{56C61156-81C8-4055-BBB9-D8F9607026B8}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5D8E5D23-15C4-496E-A442-E5F66B56DFF3}" name="∆T'[Celsious]" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{522EBAD6-58CD-4875-A759-F4B062A91DDA}" name="∆∆T[celsious]" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5D8E5D23-15C4-496E-A442-E5F66B56DFF3}" name="∆T'[Celsious]" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{522EBAD6-58CD-4875-A759-F4B062A91DDA}" name="∆∆T[celsious]" dataDxfId="13">
       <calculatedColumnFormula>B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE41806F-4C63-40E7-BBF8-641622478247}" name="V[mV]" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{DE41806F-4C63-40E7-BBF8-641622478247}" name="V[mV]" dataDxfId="12">
       <calculatedColumnFormula>טבלה14[[#This Row],[∆T'''[Celsious']]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B03BFE1A-B89F-4C5B-9AEE-CEAD18EF0B9B}" name="∆V[mV]" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{B03BFE1A-B89F-4C5B-9AEE-CEAD18EF0B9B}" name="∆V[mV]" dataDxfId="11">
       <calculatedColumnFormula>טבלה14[[#This Row],[V'[mV']]]*0.0003+2*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{27CF1490-2578-4A46-A281-761DDEEA891B}" name="עמודה1" dataDxfId="5">
-      <calculatedColumnFormula>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{27CF1490-2578-4A46-A281-761DDEEA891B}" name="עמודה1" dataDxfId="2">
+      <calculatedColumnFormula>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{42ECE5AB-E8EB-4070-A0AF-78417F62D6FE}" name="עמודה2" dataDxfId="4">
-      <calculatedColumnFormula>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{42ECE5AB-E8EB-4070-A0AF-78417F62D6FE}" name="עמודה2" dataDxfId="1">
+      <calculatedColumnFormula>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2536,16 +2557,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4918A1BA-9682-4F07-B989-1042D1377394}" name="טבלה135" displayName="טבלה135" ref="H7:K21" totalsRowShown="0">
   <autoFilter ref="H7:K21" xr:uid="{F74EDFE4-4767-4677-9E67-ADBC81F2C880}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9B85BEDD-EA63-4D06-8ABD-5EBE55E67635}" name="∆T[Kelvin]" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{9B85BEDD-EA63-4D06-8ABD-5EBE55E67635}" name="∆T[Kelvin]" dataDxfId="6">
       <calculatedColumnFormula>טבלה14[∆T'''[Celsious']]+273.15-A$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CB916C83-3C94-4B76-9387-6553CE0DCEDD}" name="∆∆T[Kelvin]">
+    <tableColumn id="2" xr3:uid="{CB916C83-3C94-4B76-9387-6553CE0DCEDD}" name="∆∆T[Kelvin]" dataDxfId="5">
       <calculatedColumnFormula>טבלה14[∆∆T'[celsious']]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8840AA9A-481A-4EB8-9C37-1E46B922BFA8}" name="V[mV]">
+    <tableColumn id="3" xr3:uid="{8840AA9A-481A-4EB8-9C37-1E46B922BFA8}" name="V[mV]" dataDxfId="4">
       <calculatedColumnFormula>טבלה14[V'[mV']]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0CB599FC-DBC8-4BEB-8021-AAC92B601CA6}" name="∆V[mV]">
+    <tableColumn id="4" xr3:uid="{0CB599FC-DBC8-4BEB-8021-AAC92B601CA6}" name="∆V[mV]" dataDxfId="3">
       <calculatedColumnFormula>טבלה14[∆V'[mV']]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2850,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2ADC62-7416-4861-BB8D-AAF852161C10}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2991,26 +3012,26 @@
         <v>2.1080000000000002E-2</v>
       </c>
       <c r="E8">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.58555555555555561</v>
       </c>
       <c r="F8" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.29698484809834996</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>361.10265199999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.1080000000000002E-2</v>
       </c>
@@ -3031,26 +3052,26 @@
         <v>2.1065E-2</v>
       </c>
       <c r="E9">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.5933802816901409</v>
       </c>
       <c r="F9" s="2">
-        <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
+        <f>ABS(טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]])*100</f>
         <v>0.30373450373694882</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>359.10265199999998</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.55</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.1065E-2</v>
       </c>
@@ -3071,26 +3092,26 @@
         <v>2.1038000000000001E-2</v>
       </c>
       <c r="E10">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.60803468208092493</v>
       </c>
       <c r="F10" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.31079809684711041</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>357.10265199999998</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.46</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.1038000000000001E-2</v>
       </c>
@@ -3111,26 +3132,26 @@
         <v>2.1011000000000002E-2</v>
       </c>
       <c r="E11">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.62347181008902075</v>
       </c>
       <c r="F11" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.31819805153394637</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>355.10265199999998</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.37</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.1011000000000002E-2</v>
       </c>
@@ -3151,26 +3172,26 @@
         <v>2.0983999999999999E-2</v>
       </c>
       <c r="E12">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.63975609756097562</v>
       </c>
       <c r="F12" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.3259589796201402</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>353.10265199999998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.28</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0983999999999999E-2</v>
       </c>
@@ -3191,26 +3212,26 @@
         <v>2.0957E-2</v>
       </c>
       <c r="E13">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.65695924764890279</v>
       </c>
       <c r="F13" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.3341079541106437</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>351.10265199999998</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.19</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0957E-2</v>
       </c>
@@ -3231,26 +3252,26 @@
         <v>2.0933E-2</v>
       </c>
       <c r="E14">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.67308681672025727</v>
       </c>
       <c r="F14" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.34267482472886535</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>349.10265199999998</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.11</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0933E-2</v>
       </c>
@@ -3271,26 +3292,26 @@
         <v>2.0909000000000001E-2</v>
       </c>
       <c r="E15">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.6900660066006602</v>
       </c>
       <c r="F15" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.35169258327436176</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>347.10265199999998</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>3.03</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0909000000000001E-2</v>
       </c>
@@ -3311,26 +3332,26 @@
         <v>2.0885000000000001E-2</v>
       </c>
       <c r="E16">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.70796610169491525</v>
       </c>
       <c r="F16" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.36119778822772292</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>345.10265199999998</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.95</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0885000000000001E-2</v>
       </c>
@@ -3351,26 +3372,26 @@
         <v>2.0861000000000001E-2</v>
       </c>
       <c r="E17">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.7268641114982578</v>
       </c>
       <c r="F17" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.37123106012293744</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>343.10265199999998</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.87</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0861000000000001E-2</v>
       </c>
@@ -3391,26 +3412,26 @@
         <v>2.0834000000000002E-2</v>
       </c>
       <c r="E18">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.74942446043165478</v>
       </c>
       <c r="F18" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.38183766184073564</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>341.10265199999998</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.78</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0834000000000002E-2</v>
       </c>
@@ -3431,26 +3452,26 @@
         <v>2.0810000000000002E-2</v>
       </c>
       <c r="E19">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.77074074074074073</v>
       </c>
       <c r="F19" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.39306818130663962</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>339.10265199999998</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.7</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0810000000000002E-2</v>
       </c>
@@ -3471,26 +3492,26 @@
         <v>2.0785999999999999E-2</v>
       </c>
       <c r="E20">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.79335877862595405</v>
       </c>
       <c r="F20" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.4049793383159318</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>337.10265199999998</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.62</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0785999999999999E-2</v>
       </c>
@@ -3511,26 +3532,26 @@
         <v>2.0759E-2</v>
       </c>
       <c r="E21">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.82051383399209499</v>
       </c>
       <c r="F21" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.41763494263830464</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>335.10265199999998</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0759E-2</v>
       </c>
@@ -3551,26 +3572,26 @@
         <v>2.0735E-2</v>
       </c>
       <c r="E22">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.84632653061224483</v>
       </c>
       <c r="F22" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.43110703756212088</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>333.10265199999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0735E-2</v>
       </c>
@@ -3591,26 +3612,26 @@
         <v>2.0702000000000002E-2</v>
       </c>
       <c r="E23">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.8847008547008548</v>
       </c>
       <c r="F23" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.44547727214752492</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>331.10265199999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.34</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0702000000000002E-2</v>
       </c>
@@ -3631,26 +3652,26 @@
         <v>2.0674999999999999E-2</v>
       </c>
       <c r="E24">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.91888888888888887</v>
       </c>
       <c r="F24" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.46083855739399132</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>329.10265199999998</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.25</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0674999999999999E-2</v>
       </c>
@@ -3671,26 +3692,26 @@
         <v>2.0650999999999999E-2</v>
       </c>
       <c r="E25">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.95165898617511524</v>
       </c>
       <c r="F25" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.47729707730091953</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>327.10265199999998</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.17</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0650999999999999E-2</v>
       </c>
@@ -3711,26 +3732,26 @@
         <v>2.0627E-2</v>
       </c>
       <c r="E26">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>0.98693779904306234</v>
       </c>
       <c r="F26" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.49497474683058323</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>325.10265199999998</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2.09</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0627E-2</v>
       </c>
@@ -3751,26 +3772,26 @@
         <v>2.06E-2</v>
       </c>
       <c r="E27">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>1.03</v>
       </c>
       <c r="F27" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.51401223709329802</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>323.10265199999998</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>2</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.06E-2</v>
       </c>
@@ -3791,28 +3812,64 @@
         <v>2.0576000000000001E-2</v>
       </c>
       <c r="E28">
-        <f>טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]]*100</f>
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
         <v>1.0716666666666668</v>
       </c>
       <c r="F28" s="2">
         <f>טבלה1[[#This Row],[∆∆T'[celsious']]]/טבלה1[[#This Row],[∆T'''[Celsious']]]*100</f>
         <v>0.53457272657702992</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <f>טבלה1[∆T'''[Celsious']]+273.15-A$2</f>
         <v>321.10265199999998</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <f>טבלה1[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <f>טבלה1[V'[mV']]</f>
         <v>1.92</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f>טבלה1[∆V'[mV']]</f>
         <v>2.0576000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <f>B$2</f>
+        <v>0.26728636328851496</v>
+      </c>
+      <c r="C29" s="2">
+        <f>טבלה1[[#This Row],[∆T'''[Celsious']]]*2</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f>טבלה1[[#This Row],[V'[mV']]]*0.0003+2*0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="2" t="e">
+        <f>(טבלה1[[#This Row],[∆V'[mV']]]/טבלה1[[#This Row],[V'[mV']]])*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A0FAA8-235D-4E7C-AEFB-B78EA90FC905}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3943,26 +4002,26 @@
         <v>2.0267E-2</v>
       </c>
       <c r="E8">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>2.2771910112359552E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>2.277191011235955</v>
       </c>
       <c r="F8" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>1.0821310254595748E-2</v>
-      </c>
-      <c r="H8">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>1.0821310254595748</v>
+      </c>
+      <c r="H8" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>295.80265199999997</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>0.89</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>2.0267E-2</v>
       </c>
@@ -3983,26 +4042,26 @@
         <v>2.0159E-2</v>
       </c>
       <c r="E9">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>3.8035849056603774E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>3.8035849056603772</v>
       </c>
       <c r="F9" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>1.7393529204692844E-2</v>
-      </c>
-      <c r="H9">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>1.7393529204692844</v>
+      </c>
+      <c r="H9" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>286.469652</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>0.53</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>2.0159E-2</v>
       </c>
@@ -4023,26 +4082,26 @@
         <v>2.0111E-2</v>
       </c>
       <c r="E10">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>5.4354054054054059E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>5.4354054054054055</v>
       </c>
       <c r="F10" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>2.3420491854415332E-2</v>
-      </c>
-      <c r="H10">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>2.3420491854415331</v>
+      </c>
+      <c r="H10" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>282.515152</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>0.37</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>2.0111E-2</v>
       </c>
@@ -4063,26 +4122,26 @@
         <v>2.0021000000000001E-2</v>
       </c>
       <c r="E11">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>0.28601428571428572</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>28.601428571428571</v>
       </c>
       <c r="F11" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>5.9134151170025441E-2</v>
-      </c>
-      <c r="H11">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>5.9134151170025442</v>
+      </c>
+      <c r="H11" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>275.62265199999996</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>2.0021000000000001E-2</v>
       </c>
@@ -4103,26 +4162,26 @@
         <v>1.9963999999999999E-2</v>
       </c>
       <c r="E12">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-0.16636666666666666</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>16.636666666666667</v>
       </c>
       <c r="F12" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-0.40133087580858101</v>
-      </c>
-      <c r="H12">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>40.133087580858103</v>
+      </c>
+      <c r="H12" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>270.43665199999998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-0.12</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9963999999999999E-2</v>
       </c>
@@ -4144,26 +4203,26 @@
         <v>1.9918999999999999E-2</v>
       </c>
       <c r="E13">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-7.3774074074074061E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>7.3774074074074063</v>
       </c>
       <c r="F13" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-5.7112470788144229E-2</v>
-      </c>
-      <c r="H13">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>5.7112470788144227</v>
+      </c>
+      <c r="H13" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>266.42265199999997</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-0.27</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9918999999999999E-2</v>
       </c>
@@ -4184,26 +4243,26 @@
         <v>1.9844000000000001E-2</v>
       </c>
       <c r="E14">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-3.8161538461538462E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>3.816153846153846</v>
       </c>
       <c r="F14" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-2.5278891879558802E-2</v>
-      </c>
-      <c r="H14">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>2.5278891879558802</v>
+      </c>
+      <c r="H14" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>260.52915199999995</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-0.52</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9844000000000001E-2</v>
       </c>
@@ -4224,26 +4283,26 @@
         <v>1.9751000000000001E-2</v>
       </c>
       <c r="E15">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-2.3796385542168678E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>2.3796385542168679</v>
       </c>
       <c r="F15" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-1.4117113227269915E-2</v>
-      </c>
-      <c r="H15">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>1.4117113227269915</v>
+      </c>
+      <c r="H15" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>252.16915199999997</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-0.83</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9751000000000001E-2</v>
       </c>
@@ -4264,26 +4323,26 @@
         <v>1.9661000000000001E-2</v>
       </c>
       <c r="E16">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-1.7399115044247789E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>1.7399115044247788</v>
       </c>
       <c r="F16" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-9.9187814561096568E-3</v>
-      </c>
-      <c r="H16">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.99187814561096566</v>
+      </c>
+      <c r="H16" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>244.15515199999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-1.1299999999999999</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9661000000000001E-2</v>
       </c>
@@ -4304,26 +4363,26 @@
         <v>1.9535E-2</v>
       </c>
       <c r="E17">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-1.2603225806451613E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>1.2603225806451612</v>
       </c>
       <c r="F17" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-7.1083647876028977E-3</v>
-      </c>
-      <c r="H17">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.71083647876028977</v>
+      </c>
+      <c r="H17" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>233.50098533333332</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-1.55</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9535E-2</v>
       </c>
@@ -4344,26 +4403,26 @@
         <v>1.9445E-2</v>
       </c>
       <c r="E18">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-1.051081081081081E-2</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>1.0510810810810809</v>
       </c>
       <c r="F18" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-5.7158270684526053E-3</v>
-      </c>
-      <c r="H18">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.57158270684526058</v>
+      </c>
+      <c r="H18" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>224.34015199999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-1.85</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9445E-2</v>
       </c>
@@ -4384,26 +4443,26 @@
         <v>1.9361E-2</v>
       </c>
       <c r="E19">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-9.0896713615023477E-3</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>0.90896713615023472</v>
       </c>
       <c r="F19" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-4.9125846749775298E-3</v>
-      </c>
-      <c r="H19">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.49125846749775298</v>
+      </c>
+      <c r="H19" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>216.69415199999997</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-2.13</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9361E-2</v>
       </c>
@@ -4424,26 +4483,26 @@
         <v>1.9280000000000002E-2</v>
       </c>
       <c r="E20">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-8.033333333333335E-3</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>0.80333333333333345</v>
       </c>
       <c r="F20" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-4.296621254145574E-3</v>
-      </c>
-      <c r="H20" s="2">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.42966212541455739</v>
+      </c>
+      <c r="H20" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>208.89415199999996</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-2.4</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9280000000000002E-2</v>
       </c>
@@ -4464,26 +4523,26 @@
         <v>1.9235000000000002E-2</v>
       </c>
       <c r="E21">
-        <f>טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]]</f>
-        <v>-7.5431372549019625E-3</v>
+        <f>ABS(טבלה14[[#This Row],[∆V'[mV']]]/טבלה14[[#This Row],[V'[mV']]])*100</f>
+        <v>0.75431372549019626</v>
       </c>
       <c r="F21" s="2">
-        <f>טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]]</f>
-        <v>-3.9908378243899215E-3</v>
-      </c>
-      <c r="H21" s="2">
+        <f>ABS(טבלה14[[#This Row],[∆∆T'[celsious']]]/טבלה14[[#This Row],[∆T'''[Celsious']]])*100</f>
+        <v>0.39908378243899212</v>
+      </c>
+      <c r="H21" s="4">
         <f>טבלה14[∆T'''[Celsious']]+273.15-A$2</f>
         <v>204.12765199999998</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <f>טבלה14[∆∆T'[celsious']]</f>
         <v>0.26728636328851496</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f>טבלה14[V'[mV']]</f>
         <v>-2.5499999999999998</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f>טבלה14[∆V'[mV']]</f>
         <v>1.9235000000000002E-2</v>
       </c>
@@ -4542,7 +4601,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
